--- a/biology/Zoologie/Archaeodontosaurus/Archaeodontosaurus.xlsx
+++ b/biology/Zoologie/Archaeodontosaurus/Archaeodontosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeodontosaurus descouensi
 Archaeodontosaurus (« lézard aux très vieilles dents ») est un genre fossile de dinosaure sauropode qui vivait au Bathonien. On ne connaît de lui que sa mâchoire et ses dents, ressemblant à celle d'un prosauropode. Ce fossile fut retrouvé à Madagascar en 2003.
@@ -513,9 +525,11 @@
           <t>Inventeur et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite par le Professeur Éric Buffetaut en 2005[1], l'espèce est dédiée au naturaliste Didier Descouens. Littéralement Archaeodontosaurus signifie « lézard aux très vieilles dents ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite par le Professeur Éric Buffetaut en 2005, l'espèce est dédiée au naturaliste Didier Descouens. Littéralement Archaeodontosaurus signifie « lézard aux très vieilles dents ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>MHNT.PAL.2003.396 : un fragment de mâchoire avec quelques dents. L'ensemble est déposé au Muséum de Toulouse.</t>
         </is>
